--- a/templates/Tracker_Question_Mapping_Template.xlsx
+++ b/templates/Tracker_Question_Mapping_Template.xlsx
@@ -5,23 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duncan/Documents/Turas/templates/Final/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duncan/Documents/Turas/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D2DC7A-EE38-1E43-8886-8DD2E30D7F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234BB76E-6223-EE47-A937-1BFBC53DD2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="500" windowWidth="29860" windowHeight="23520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1400" yWindow="500" windowWidth="29860" windowHeight="23520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
     <sheet name="QuestionMap" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="347">
   <si>
     <t>Tracker Question Mapping Template - Instructions</t>
   </si>
@@ -1354,6 +1367,564 @@
   </si>
   <si>
     <t>Version 10.0 Last updated 4 December 2025</t>
+  </si>
+  <si>
+    <t># Multi_Mention Tracking Instructions</t>
+  </si>
+  <si>
+    <t>## Overview</t>
+  </si>
+  <si>
+    <t>Multi_Mention questions (select-all-that-apply) support **TWO tracking modes**:</t>
+  </si>
+  <si>
+    <t>1. **Binary Mode**: Tracks 0/1 values in option columns (e.g., Q10_1, Q10_2, Q10_3)</t>
+  </si>
+  <si>
+    <t>2. **Category Mode**: Tracks text labels in option columns (e.g., "We rely on CCS", "Personal records")</t>
+  </si>
+  <si>
+    <t>The tracker automatically detects which mode to use based on your TrackingSpecs syntax.</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>## Data Format Requirements</t>
+  </si>
+  <si>
+    <t>### Binary Mode Data Format</t>
+  </si>
+  <si>
+    <t>**Columns:** Question code with numeric suffixes (e.g., Q10_1, Q10_2, Q10_3, Q10_4)</t>
+  </si>
+  <si>
+    <t>**Values:**</t>
+  </si>
+  <si>
+    <t>- `1` = option selected/mentioned</t>
+  </si>
+  <si>
+    <t>- `0` or blank/NA = option not selected</t>
+  </si>
+  <si>
+    <t>**Example:**</t>
+  </si>
+  <si>
+    <t>```</t>
+  </si>
+  <si>
+    <t>RespondentID | Q10_1 | Q10_2 | Q10_3 | Q10_4 | Q10_5</t>
+  </si>
+  <si>
+    <t>-------------|-------|-------|-------|-------|-------</t>
+  </si>
+  <si>
+    <t>R001         | 1     | 0     | 1     | 1     | 0</t>
+  </si>
+  <si>
+    <t>R002         | 0     | 1     | 0     | 0     | 1</t>
+  </si>
+  <si>
+    <t>R003         | 1     | 1     | 0     | 1     | 0</t>
+  </si>
+  <si>
+    <t>### Category Mode Data Format</t>
+  </si>
+  <si>
+    <t>**Values:** Text labels when selected, blank/NA when not selected</t>
+  </si>
+  <si>
+    <t>RespondentID | Q10_1                    | Q10_2              | Q10_3 | Q10_4</t>
+  </si>
+  <si>
+    <t>-------------|--------------------------|-----------------------|-------|-------</t>
+  </si>
+  <si>
+    <t>R001         | We rely on CCS           | Personal records      |       | Other</t>
+  </si>
+  <si>
+    <t>R002         | Internal store system    |                       |       |</t>
+  </si>
+  <si>
+    <t>R003         | We rely on CCS           | Other                 |       |</t>
+  </si>
+  <si>
+    <t>**IMPORTANT:**</t>
+  </si>
+  <si>
+    <t>- Each column can contain ANY of the available text labels (not fixed per column)</t>
+  </si>
+  <si>
+    <t>- Respondents who select multiple options will have text in multiple columns</t>
+  </si>
+  <si>
+    <t>- The tracker searches for your specified text across ALL option columns</t>
+  </si>
+  <si>
+    <t>## Tracking Template Configuration</t>
+  </si>
+  <si>
+    <t>### Question Mapping Setup</t>
+  </si>
+  <si>
+    <t>**Required Columns:**</t>
+  </si>
+  <si>
+    <t>QuestionCode | QuestionText              | QuestionType  | Wave1 | Wave2 | Wave3</t>
+  </si>
+  <si>
+    <t>-------------|---------------------------|---------------|-------|-------|-------</t>
+  </si>
+  <si>
+    <t>Q10          | method of tracking        | Multi_Mention | NA    | Q10   | Q10</t>
+  </si>
+  <si>
+    <t>**Wave Mapping:**</t>
+  </si>
+  <si>
+    <t>- Enter question code for each wave where the question appears</t>
+  </si>
+  <si>
+    <t>- Use `NA` for waves where question was not asked</t>
+  </si>
+  <si>
+    <t>- Tracker will automatically find first available wave for mode detection</t>
+  </si>
+  <si>
+    <t>## TrackingSpecs Syntax</t>
+  </si>
+  <si>
+    <t>### Binary Mode - Track Specific Options</t>
+  </si>
+  <si>
+    <t>**Syntax:** `option:COLUMN_NAME`</t>
+  </si>
+  <si>
+    <t>**Use When:** Your data has 0/1 values and you want to track specific options</t>
+  </si>
+  <si>
+    <t>**Examples:**</t>
+  </si>
+  <si>
+    <t>| TrackingSpecs | What It Tracks |</t>
+  </si>
+  <si>
+    <t>|---------------|----------------|</t>
+  </si>
+  <si>
+    <t>| `option:Q10_4` | Only track Q10_4 column |</t>
+  </si>
+  <si>
+    <t>| `option:Q10_2,option:Q10_5` | Track Q10_2 and Q10_5 only |</t>
+  </si>
+  <si>
+    <t>| `auto` | Track ALL columns (Q10_1, Q10_2, Q10_3, etc.) |</t>
+  </si>
+  <si>
+    <t>**When to Use:**</t>
+  </si>
+  <si>
+    <t>- Client only cares about specific options (e.g., "track awareness of Option 4")</t>
+  </si>
+  <si>
+    <t>- Need to reduce clutter in output by excluding low-interest options</t>
+  </si>
+  <si>
+    <t>### Binary Mode - Track All Options</t>
+  </si>
+  <si>
+    <t>**Syntax:** `auto`</t>
+  </si>
+  <si>
+    <t>**Use When:** You want to track all options automatically</t>
+  </si>
+  <si>
+    <t>| QuestionCode | TrackingSpecs |</t>
+  </si>
+  <si>
+    <t>|--------------|---------------|</t>
+  </si>
+  <si>
+    <t>| Q10          | auto          |</t>
+  </si>
+  <si>
+    <t>**Output:** Tracker detects all Q10_* columns and tracks each one separately</t>
+  </si>
+  <si>
+    <t>### Category Mode - Track Specific Text Values</t>
+  </si>
+  <si>
+    <t>**Syntax:** `category:TEXT_VALUE`</t>
+  </si>
+  <si>
+    <t>**Use When:** Your data has text labels and you want to track specific categories</t>
+  </si>
+  <si>
+    <t>| `category:We rely on CCS` | Tracks % who mentioned "We rely on CCS" |</t>
+  </si>
+  <si>
+    <t>| `category:Personal records,category:Other` | Tracks "Personal records" and "Other" |</t>
+  </si>
+  <si>
+    <t>| `category:Internal store system (e.g merchandiser control form/register)` | Exact text match including parenthetical |</t>
+  </si>
+  <si>
+    <t>**Text Matching Rules:**</t>
+  </si>
+  <si>
+    <t>- **Case-insensitive:** "we rely on CCS" matches "We rely on CCS"</t>
+  </si>
+  <si>
+    <t>- **Exact match:** Text must match exactly (after trimming whitespace)</t>
+  </si>
+  <si>
+    <t>- **Searches all columns:** Tracker searches Q10_1, Q10_2, Q10_3, etc. for the text</t>
+  </si>
+  <si>
+    <t>- **Parentheticals matter:** "Internal store system" ≠ "Internal store system (e.g. register)"</t>
+  </si>
+  <si>
+    <t>**CRITICAL:** The text in TrackingSpecs must **exactly match** the text in your data (case doesn't matter, but spelling, punctuation, and parentheticals do)</t>
+  </si>
+  <si>
+    <t>## Complete Examples</t>
+  </si>
+  <si>
+    <t>### Example 1: Binary Mode - Track All Options</t>
+  </si>
+  <si>
+    <t>**Question:** Q15 "Which social media platforms do you use?" (select all that apply)</t>
+  </si>
+  <si>
+    <t>**Data Format:**</t>
+  </si>
+  <si>
+    <t>Q15_1 = 1/0 (Facebook)</t>
+  </si>
+  <si>
+    <t>Q15_2 = 1/0 (Instagram)</t>
+  </si>
+  <si>
+    <t>Q15_3 = 1/0 (Twitter)</t>
+  </si>
+  <si>
+    <t>Q15_4 = 1/0 (TikTok)</t>
+  </si>
+  <si>
+    <t>Q15_5 = 1/0 (LinkedIn)</t>
+  </si>
+  <si>
+    <t>**Tracking Template:**</t>
+  </si>
+  <si>
+    <t>QuestionCode: Q15</t>
+  </si>
+  <si>
+    <t>QuestionText: Social media usage</t>
+  </si>
+  <si>
+    <t>QuestionType: Multi_Mention</t>
+  </si>
+  <si>
+    <t>TrackingSpecs: auto</t>
+  </si>
+  <si>
+    <t>Wave1: Q15</t>
+  </si>
+  <si>
+    <t>Wave2: Q15</t>
+  </si>
+  <si>
+    <t>Wave3: Q15</t>
+  </si>
+  <si>
+    <t>**Output:** 5 rows showing % mentioning each platform (Q15_1, Q15_2, Q15_3, Q15_4, Q15_5)</t>
+  </si>
+  <si>
+    <t>### Example 2: Binary Mode - Track Selected Options Only</t>
+  </si>
+  <si>
+    <t>**Question:** Q20 "Which features are most important?" (select top 3)</t>
+  </si>
+  <si>
+    <t>**Data Format:** Same as above (Q20_1 through Q20_8 with 0/1 values)</t>
+  </si>
+  <si>
+    <t>QuestionCode: Q20</t>
+  </si>
+  <si>
+    <t>QuestionText: Top features</t>
+  </si>
+  <si>
+    <t>TrackingSpecs: option:Q20_1,option:Q20_3,option:Q20_7</t>
+  </si>
+  <si>
+    <t>Wave1: Q20</t>
+  </si>
+  <si>
+    <t>Wave2: Q20</t>
+  </si>
+  <si>
+    <t>Wave3: Q20</t>
+  </si>
+  <si>
+    <t>**Output:** 3 rows showing only Q20_1, Q20_3, and Q20_7</t>
+  </si>
+  <si>
+    <t>### Example 3: Category Mode - Track Specific Text Categories</t>
+  </si>
+  <si>
+    <t>**Question:** Q10 "What methods do you use for tracking inventory?" (select all that apply)</t>
+  </si>
+  <si>
+    <t>R001         | We rely on CCS           | Personal records      |       |</t>
+  </si>
+  <si>
+    <t>R002         | Internal store system    |                       |       | Other</t>
+  </si>
+  <si>
+    <t>R003         | We rely on CCS           |                       |       | Other</t>
+  </si>
+  <si>
+    <t>R004         | Personal records         | Other                 |       |</t>
+  </si>
+  <si>
+    <t>QuestionCode: Q10</t>
+  </si>
+  <si>
+    <t>QuestionText: method of tracking</t>
+  </si>
+  <si>
+    <t>TrackingSpecs: category:We rely on CCS,category:Personal records,category:Other</t>
+  </si>
+  <si>
+    <t>Wave1: NA</t>
+  </si>
+  <si>
+    <t>Wave2: Q10</t>
+  </si>
+  <si>
+    <t>Wave3: Q10</t>
+  </si>
+  <si>
+    <t>**Output:** 3 rows showing:</t>
+  </si>
+  <si>
+    <t>- % We rely on CCS (searches all Q10_* columns for this text)</t>
+  </si>
+  <si>
+    <t>- % Personal records</t>
+  </si>
+  <si>
+    <t>- % Other</t>
+  </si>
+  <si>
+    <t>## Output Format</t>
+  </si>
+  <si>
+    <t>### Detail Report</t>
+  </si>
+  <si>
+    <t>Shows wave-over-wave changes with significance testing:</t>
+  </si>
+  <si>
+    <t>method of tracking</t>
+  </si>
+  <si>
+    <t>Metric                          | Wave1_Total | Wave2_Total | Wave3_Total</t>
+  </si>
+  <si>
+    <t>--------------------------------|-------------|-------------|-------------</t>
+  </si>
+  <si>
+    <t>Sample Size (n)                 |             | 60          | 60</t>
+  </si>
+  <si>
+    <t>Wave-over-Wave Changes (Total - We rely on CCS):</t>
+  </si>
+  <si>
+    <t>Comparison    | From  | To    | Change | % Change | Significant</t>
+  </si>
+  <si>
+    <t>--------------|-------|-------|--------|----------|-------------</t>
+  </si>
+  <si>
+    <t>Wave1 → Wave2 |       | 6.67  |        |          | No</t>
+  </si>
+  <si>
+    <t>Wave2 → Wave3 | 6.67  | 3.33  | -3.33  | -50.00   | No</t>
+  </si>
+  <si>
+    <t>### Wave History Report</t>
+  </si>
+  <si>
+    <t>Shows trend across all waves in single row:</t>
+  </si>
+  <si>
+    <t>QuestionCode | Question              | Type              | Wave2_Total | Wave3_Total</t>
+  </si>
+  <si>
+    <t>-------------|-----------------------|-------------------|-------------|-------------</t>
+  </si>
+  <si>
+    <t>Q10          | method of tracking    | % We rely on CCS  | 6.67        | 3.33</t>
+  </si>
+  <si>
+    <t>Q10          | method of tracking    | % Personal records| 12.50       | 15.00</t>
+  </si>
+  <si>
+    <t>Q10          | method of tracking    | % Other           | 5.00        | 8.33</t>
+  </si>
+  <si>
+    <t>## Common Issues and Troubleshooting</t>
+  </si>
+  <si>
+    <t>### Issue 1: "All values are non-numeric (converted to NA)" Warning</t>
+  </si>
+  <si>
+    <t>**Symptom:** Console shows warnings like:</t>
+  </si>
+  <si>
+    <t>WARNING: Q10_4: All 4 values are non-numeric (converted to NA). Check data source.</t>
+  </si>
+  <si>
+    <t>**Cause:** You have text data but the tracker is trying to convert it to numeric.</t>
+  </si>
+  <si>
+    <t>**Solution:** Use `category:` syntax in TrackingSpecs, not `option:` or `auto`</t>
+  </si>
+  <si>
+    <t>### Issue 2: Question Appears But Values Are Blank</t>
+  </si>
+  <si>
+    <t>**Symptom:** Q10 appears in output but all values show as 0% or blank</t>
+  </si>
+  <si>
+    <t>**Cause:** Text in TrackingSpecs doesn't match text in data</t>
+  </si>
+  <si>
+    <t>**Solution:** Check exact spelling, punctuation, and parentheticals. Copy text directly from data.</t>
+  </si>
+  <si>
+    <t>**Example of mismatch:**</t>
+  </si>
+  <si>
+    <t>- TrackingSpecs: `category:Internal store system`</t>
+  </si>
+  <si>
+    <t>- Data contains: `"Internal store system (e.g merchandiser control form/register)"`</t>
+  </si>
+  <si>
+    <t>- These DON'T match! Include the parenthetical in TrackingSpecs.</t>
+  </si>
+  <si>
+    <t>### Issue 3: Question Missing from Wave History Report</t>
+  </si>
+  <si>
+    <t>**Symptom:** Q10 appears in detail report but not wave history report</t>
+  </si>
+  <si>
+    <t>**Cause:** This was a bug in v2.1 (now fixed). Update to latest version.</t>
+  </si>
+  <si>
+    <t>**Solution:** Pull latest code with wave history category mode support</t>
+  </si>
+  <si>
+    <t>### Issue 4: "missing value where TRUE/FALSE needed" Error</t>
+  </si>
+  <si>
+    <t>**Symptom:** Tracker crashes with this error when using `option:Q10_4` syntax</t>
+  </si>
+  <si>
+    <t>**Cause:** This was a bug in v2.1 (now fixed - Issue-001)</t>
+  </si>
+  <si>
+    <t>**Solution:** Update to latest version</t>
+  </si>
+  <si>
+    <t>## Quick Decision Guide</t>
+  </si>
+  <si>
+    <t>**Use Binary Mode (`option:` or `auto`) when:**</t>
+  </si>
+  <si>
+    <t>- ✓ Your data has 0/1 values</t>
+  </si>
+  <si>
+    <t>- ✓ You want to track which options were selected</t>
+  </si>
+  <si>
+    <t>- ✓ Each column represents a fixed option</t>
+  </si>
+  <si>
+    <t>**Use Category Mode (`category:`) when:**</t>
+  </si>
+  <si>
+    <t>- ✓ Your data has text labels</t>
+  </si>
+  <si>
+    <t>- ✓ Text can appear in any column (not fixed per column)</t>
+  </si>
+  <si>
+    <t>- ✓ You want to track specific text values regardless of which column they're in</t>
+  </si>
+  <si>
+    <t>## Template Quick Reference</t>
+  </si>
+  <si>
+    <t>### Binary Mode - All Options</t>
+  </si>
+  <si>
+    <t>QuestionCode: Q##</t>
+  </si>
+  <si>
+    <t>### Binary Mode - Selected Options</t>
+  </si>
+  <si>
+    <t>TrackingSpecs: option:Q##_1,option:Q##_4,option:Q##_7</t>
+  </si>
+  <si>
+    <t>### Category Mode - Specific Text Values</t>
+  </si>
+  <si>
+    <t>TrackingSpecs: category:First Category,category:Second Category,category:Third Category</t>
+  </si>
+  <si>
+    <t>**Remember:** Copy text EXACTLY from your data (case doesn't matter, but spelling does!)</t>
+  </si>
+  <si>
+    <t>## Version Notes</t>
+  </si>
+  <si>
+    <t>- **v2.1 (2025-12-05)**: Category mode fully functional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Fixed data loader to preserve text in sub-columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Fixed wave history report support for category mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Fixed validation to allow category: syntax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Fixed mode detection for questions not in Wave1</t>
+  </si>
+  <si>
+    <t>- **v2.1 (2025-12-04)**: Fixed selective TrackingSpecs bug (Issue-001)</t>
+  </si>
+  <si>
+    <t>- **v2.0**: Added TrackingSpecs support for Multi_Mention</t>
+  </si>
+  <si>
+    <t>- **v1.x**: Only supported binary mode with auto-detection</t>
+  </si>
+  <si>
+    <t>**Questions?** Check TECHNICAL_DOCUMENTATION_V2.md for detailed implementation notes.</t>
+  </si>
+  <si>
+    <t>- Tracking top mentions only</t>
   </si>
 </sst>
 </file>
@@ -1581,7 +2152,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1628,6 +2199,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1933,7 +2505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:F12"/>
     </sheetView>
   </sheetViews>
@@ -2263,10 +2835,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H110"/>
+  <dimension ref="A1:H472"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="B206" sqref="B206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3411,6 +3983,3382 @@
       <c r="F110" s="15"/>
       <c r="G110" s="15"/>
     </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B113" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="19"/>
+      <c r="G113" s="19"/>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B114" s="19"/>
+      <c r="C114" s="19"/>
+      <c r="D114" s="19"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="19"/>
+      <c r="G114" s="19"/>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B115" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C115" s="19"/>
+      <c r="D115" s="19"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="19"/>
+      <c r="G115" s="19"/>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B116" s="19"/>
+      <c r="C116" s="19"/>
+      <c r="D116" s="19"/>
+      <c r="E116" s="19"/>
+      <c r="F116" s="19"/>
+      <c r="G116" s="19"/>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B117" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C117" s="19"/>
+      <c r="D117" s="19"/>
+      <c r="E117" s="19"/>
+      <c r="F117" s="19"/>
+      <c r="G117" s="19"/>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B118" s="19"/>
+      <c r="C118" s="19"/>
+      <c r="D118" s="19"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="19"/>
+      <c r="G118" s="19"/>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B119" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C119" s="19"/>
+      <c r="D119" s="19"/>
+      <c r="E119" s="19"/>
+      <c r="F119" s="19"/>
+      <c r="G119" s="19"/>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B120" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C120" s="19"/>
+      <c r="D120" s="19"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="19"/>
+      <c r="G120" s="19"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B121" s="19"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="19"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="19"/>
+      <c r="G121" s="19"/>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B122" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C122" s="19"/>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="19"/>
+      <c r="G122" s="19"/>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B123" s="19"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="19"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="19"/>
+      <c r="G123" s="19"/>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B124" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C124" s="19"/>
+      <c r="D124" s="19"/>
+      <c r="E124" s="19"/>
+      <c r="F124" s="19"/>
+      <c r="G124" s="19"/>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B125" s="19"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="19"/>
+      <c r="E125" s="19"/>
+      <c r="F125" s="19"/>
+      <c r="G125" s="19"/>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B126" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C126" s="19"/>
+      <c r="D126" s="19"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="19"/>
+      <c r="G126" s="19"/>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B127" s="19"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="19"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="19"/>
+      <c r="G127" s="19"/>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B128" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C128" s="19"/>
+      <c r="D128" s="19"/>
+      <c r="E128" s="19"/>
+      <c r="F128" s="19"/>
+      <c r="G128" s="19"/>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B129" s="19"/>
+      <c r="C129" s="19"/>
+      <c r="D129" s="19"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="19"/>
+      <c r="G129" s="19"/>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B130" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C130" s="19"/>
+      <c r="D130" s="19"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="19"/>
+      <c r="G130" s="19"/>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B131" s="19"/>
+      <c r="C131" s="19"/>
+      <c r="D131" s="19"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="19"/>
+      <c r="G131" s="19"/>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B132" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C132" s="19"/>
+      <c r="D132" s="19"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="19"/>
+      <c r="G132" s="19"/>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B133" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C133" s="19"/>
+      <c r="D133" s="19"/>
+      <c r="E133" s="19"/>
+      <c r="F133" s="19"/>
+      <c r="G133" s="19"/>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B134" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C134" s="19"/>
+      <c r="D134" s="19"/>
+      <c r="E134" s="19"/>
+      <c r="F134" s="19"/>
+      <c r="G134" s="19"/>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B135" s="19"/>
+      <c r="C135" s="19"/>
+      <c r="D135" s="19"/>
+      <c r="E135" s="19"/>
+      <c r="F135" s="19"/>
+      <c r="G135" s="19"/>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B136" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C136" s="19"/>
+      <c r="D136" s="19"/>
+      <c r="E136" s="19"/>
+      <c r="F136" s="19"/>
+      <c r="G136" s="19"/>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B137" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C137" s="19"/>
+      <c r="D137" s="19"/>
+      <c r="E137" s="19"/>
+      <c r="F137" s="19"/>
+      <c r="G137" s="19"/>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B138" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C138" s="19"/>
+      <c r="D138" s="19"/>
+      <c r="E138" s="19"/>
+      <c r="F138" s="19"/>
+      <c r="G138" s="19"/>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B139" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C139" s="19"/>
+      <c r="D139" s="19"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="19"/>
+      <c r="G139" s="19"/>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B140" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C140" s="19"/>
+      <c r="D140" s="19"/>
+      <c r="E140" s="19"/>
+      <c r="F140" s="19"/>
+      <c r="G140" s="19"/>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B141" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C141" s="19"/>
+      <c r="D141" s="19"/>
+      <c r="E141" s="19"/>
+      <c r="F141" s="19"/>
+      <c r="G141" s="19"/>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B142" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C142" s="19"/>
+      <c r="D142" s="19"/>
+      <c r="E142" s="19"/>
+      <c r="F142" s="19"/>
+      <c r="G142" s="19"/>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B143" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C143" s="19"/>
+      <c r="D143" s="19"/>
+      <c r="E143" s="19"/>
+      <c r="F143" s="19"/>
+      <c r="G143" s="19"/>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B144" s="19"/>
+      <c r="C144" s="19"/>
+      <c r="D144" s="19"/>
+      <c r="E144" s="19"/>
+      <c r="F144" s="19"/>
+      <c r="G144" s="19"/>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B145" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C145" s="19"/>
+      <c r="D145" s="19"/>
+      <c r="E145" s="19"/>
+      <c r="F145" s="19"/>
+      <c r="G145" s="19"/>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B146" s="19"/>
+      <c r="C146" s="19"/>
+      <c r="D146" s="19"/>
+      <c r="E146" s="19"/>
+      <c r="F146" s="19"/>
+      <c r="G146" s="19"/>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B147" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C147" s="19"/>
+      <c r="D147" s="19"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="19"/>
+      <c r="G147" s="19"/>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B148" s="19"/>
+      <c r="C148" s="19"/>
+      <c r="D148" s="19"/>
+      <c r="E148" s="19"/>
+      <c r="F148" s="19"/>
+      <c r="G148" s="19"/>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B149" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C149" s="19"/>
+      <c r="D149" s="19"/>
+      <c r="E149" s="19"/>
+      <c r="F149" s="19"/>
+      <c r="G149" s="19"/>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B150" s="19"/>
+      <c r="C150" s="19"/>
+      <c r="D150" s="19"/>
+      <c r="E150" s="19"/>
+      <c r="F150" s="19"/>
+      <c r="G150" s="19"/>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B151" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C151" s="19"/>
+      <c r="D151" s="19"/>
+      <c r="E151" s="19"/>
+      <c r="F151" s="19"/>
+      <c r="G151" s="19"/>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B152" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C152" s="19"/>
+      <c r="D152" s="19"/>
+      <c r="E152" s="19"/>
+      <c r="F152" s="19"/>
+      <c r="G152" s="19"/>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B153" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C153" s="19"/>
+      <c r="D153" s="19"/>
+      <c r="E153" s="19"/>
+      <c r="F153" s="19"/>
+      <c r="G153" s="19"/>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B154" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C154" s="19"/>
+      <c r="D154" s="19"/>
+      <c r="E154" s="19"/>
+      <c r="F154" s="19"/>
+      <c r="G154" s="19"/>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B155" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C155" s="19"/>
+      <c r="D155" s="19"/>
+      <c r="E155" s="19"/>
+      <c r="F155" s="19"/>
+      <c r="G155" s="19"/>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B156" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C156" s="19"/>
+      <c r="D156" s="19"/>
+      <c r="E156" s="19"/>
+      <c r="F156" s="19"/>
+      <c r="G156" s="19"/>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B157" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="C157" s="19"/>
+      <c r="D157" s="19"/>
+      <c r="E157" s="19"/>
+      <c r="F157" s="19"/>
+      <c r="G157" s="19"/>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B158" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C158" s="19"/>
+      <c r="D158" s="19"/>
+      <c r="E158" s="19"/>
+      <c r="F158" s="19"/>
+      <c r="G158" s="19"/>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B159" s="19"/>
+      <c r="C159" s="19"/>
+      <c r="D159" s="19"/>
+      <c r="E159" s="19"/>
+      <c r="F159" s="19"/>
+      <c r="G159" s="19"/>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B160" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C160" s="19"/>
+      <c r="D160" s="19"/>
+      <c r="E160" s="19"/>
+      <c r="F160" s="19"/>
+      <c r="G160" s="19"/>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B161" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C161" s="19"/>
+      <c r="D161" s="19"/>
+      <c r="E161" s="19"/>
+      <c r="F161" s="19"/>
+      <c r="G161" s="19"/>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B162" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C162" s="19"/>
+      <c r="D162" s="19"/>
+      <c r="E162" s="19"/>
+      <c r="F162" s="19"/>
+      <c r="G162" s="19"/>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B163" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C163" s="19"/>
+      <c r="D163" s="19"/>
+      <c r="E163" s="19"/>
+      <c r="F163" s="19"/>
+      <c r="G163" s="19"/>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B164" s="19"/>
+      <c r="C164" s="19"/>
+      <c r="D164" s="19"/>
+      <c r="E164" s="19"/>
+      <c r="F164" s="19"/>
+      <c r="G164" s="19"/>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B165" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C165" s="19"/>
+      <c r="D165" s="19"/>
+      <c r="E165" s="19"/>
+      <c r="F165" s="19"/>
+      <c r="G165" s="19"/>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B166" s="19"/>
+      <c r="C166" s="19"/>
+      <c r="D166" s="19"/>
+      <c r="E166" s="19"/>
+      <c r="F166" s="19"/>
+      <c r="G166" s="19"/>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B167" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C167" s="19"/>
+      <c r="D167" s="19"/>
+      <c r="E167" s="19"/>
+      <c r="F167" s="19"/>
+      <c r="G167" s="19"/>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B168" s="19"/>
+      <c r="C168" s="19"/>
+      <c r="D168" s="19"/>
+      <c r="E168" s="19"/>
+      <c r="F168" s="19"/>
+      <c r="G168" s="19"/>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B169" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C169" s="19"/>
+      <c r="D169" s="19"/>
+      <c r="E169" s="19"/>
+      <c r="F169" s="19"/>
+      <c r="G169" s="19"/>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B170" s="19"/>
+      <c r="C170" s="19"/>
+      <c r="D170" s="19"/>
+      <c r="E170" s="19"/>
+      <c r="F170" s="19"/>
+      <c r="G170" s="19"/>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B171" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C171" s="19"/>
+      <c r="D171" s="19"/>
+      <c r="E171" s="19"/>
+      <c r="F171" s="19"/>
+      <c r="G171" s="19"/>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B172" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C172" s="19"/>
+      <c r="D172" s="19"/>
+      <c r="E172" s="19"/>
+      <c r="F172" s="19"/>
+      <c r="G172" s="19"/>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B173" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="C173" s="19"/>
+      <c r="D173" s="19"/>
+      <c r="E173" s="19"/>
+      <c r="F173" s="19"/>
+      <c r="G173" s="19"/>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B174" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C174" s="19"/>
+      <c r="D174" s="19"/>
+      <c r="E174" s="19"/>
+      <c r="F174" s="19"/>
+      <c r="G174" s="19"/>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B175" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C175" s="19"/>
+      <c r="D175" s="19"/>
+      <c r="E175" s="19"/>
+      <c r="F175" s="19"/>
+      <c r="G175" s="19"/>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B176" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C176" s="19"/>
+      <c r="D176" s="19"/>
+      <c r="E176" s="19"/>
+      <c r="F176" s="19"/>
+      <c r="G176" s="19"/>
+    </row>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B177" s="19"/>
+      <c r="C177" s="19"/>
+      <c r="D177" s="19"/>
+      <c r="E177" s="19"/>
+      <c r="F177" s="19"/>
+      <c r="G177" s="19"/>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B178" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C178" s="19"/>
+      <c r="D178" s="19"/>
+      <c r="E178" s="19"/>
+      <c r="F178" s="19"/>
+      <c r="G178" s="19"/>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B179" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C179" s="19"/>
+      <c r="D179" s="19"/>
+      <c r="E179" s="19"/>
+      <c r="F179" s="19"/>
+      <c r="G179" s="19"/>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B180" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C180" s="19"/>
+      <c r="D180" s="19"/>
+      <c r="E180" s="19"/>
+      <c r="F180" s="19"/>
+      <c r="G180" s="19"/>
+    </row>
+    <row r="181" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B181" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C181" s="19"/>
+      <c r="D181" s="19"/>
+      <c r="E181" s="19"/>
+      <c r="F181" s="19"/>
+      <c r="G181" s="19"/>
+    </row>
+    <row r="182" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B182" s="19"/>
+      <c r="C182" s="19"/>
+      <c r="D182" s="19"/>
+      <c r="E182" s="19"/>
+      <c r="F182" s="19"/>
+      <c r="G182" s="19"/>
+    </row>
+    <row r="183" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B183" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C183" s="19"/>
+      <c r="D183" s="19"/>
+      <c r="E183" s="19"/>
+      <c r="F183" s="19"/>
+      <c r="G183" s="19"/>
+    </row>
+    <row r="184" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B184" s="19"/>
+      <c r="C184" s="19"/>
+      <c r="D184" s="19"/>
+      <c r="E184" s="19"/>
+      <c r="F184" s="19"/>
+      <c r="G184" s="19"/>
+    </row>
+    <row r="185" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B185" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C185" s="19"/>
+      <c r="D185" s="19"/>
+      <c r="E185" s="19"/>
+      <c r="F185" s="19"/>
+      <c r="G185" s="19"/>
+    </row>
+    <row r="186" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B186" s="19"/>
+      <c r="C186" s="19"/>
+      <c r="D186" s="19"/>
+      <c r="E186" s="19"/>
+      <c r="F186" s="19"/>
+      <c r="G186" s="19"/>
+    </row>
+    <row r="187" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B187" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C187" s="19"/>
+      <c r="D187" s="19"/>
+      <c r="E187" s="19"/>
+      <c r="F187" s="19"/>
+      <c r="G187" s="19"/>
+    </row>
+    <row r="188" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B188" s="19"/>
+      <c r="C188" s="19"/>
+      <c r="D188" s="19"/>
+      <c r="E188" s="19"/>
+      <c r="F188" s="19"/>
+      <c r="G188" s="19"/>
+    </row>
+    <row r="189" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B189" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C189" s="19"/>
+      <c r="D189" s="19"/>
+      <c r="E189" s="19"/>
+      <c r="F189" s="19"/>
+      <c r="G189" s="19"/>
+    </row>
+    <row r="190" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B190" s="19"/>
+      <c r="C190" s="19"/>
+      <c r="D190" s="19"/>
+      <c r="E190" s="19"/>
+      <c r="F190" s="19"/>
+      <c r="G190" s="19"/>
+    </row>
+    <row r="191" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B191" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C191" s="19"/>
+      <c r="D191" s="19"/>
+      <c r="E191" s="19"/>
+      <c r="F191" s="19"/>
+      <c r="G191" s="19"/>
+    </row>
+    <row r="192" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B192" s="19"/>
+      <c r="C192" s="19"/>
+      <c r="D192" s="19"/>
+      <c r="E192" s="19"/>
+      <c r="F192" s="19"/>
+      <c r="G192" s="19"/>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B193" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C193" s="19"/>
+      <c r="D193" s="19"/>
+      <c r="E193" s="19"/>
+      <c r="F193" s="19"/>
+      <c r="G193" s="19"/>
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B194" s="19"/>
+      <c r="C194" s="19"/>
+      <c r="D194" s="19"/>
+      <c r="E194" s="19"/>
+      <c r="F194" s="19"/>
+      <c r="G194" s="19"/>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B195" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C195" s="19"/>
+      <c r="D195" s="19"/>
+      <c r="E195" s="19"/>
+      <c r="F195" s="19"/>
+      <c r="G195" s="19"/>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B196" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C196" s="19"/>
+      <c r="D196" s="19"/>
+      <c r="E196" s="19"/>
+      <c r="F196" s="19"/>
+      <c r="G196" s="19"/>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B197" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C197" s="19"/>
+      <c r="D197" s="19"/>
+      <c r="E197" s="19"/>
+      <c r="F197" s="19"/>
+      <c r="G197" s="19"/>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B198" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="C198" s="19"/>
+      <c r="D198" s="19"/>
+      <c r="E198" s="19"/>
+      <c r="F198" s="19"/>
+      <c r="G198" s="19"/>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B199" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="C199" s="19"/>
+      <c r="D199" s="19"/>
+      <c r="E199" s="19"/>
+      <c r="F199" s="19"/>
+      <c r="G199" s="19"/>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B200" s="19"/>
+      <c r="C200" s="19"/>
+      <c r="D200" s="19"/>
+      <c r="E200" s="19"/>
+      <c r="F200" s="19"/>
+      <c r="G200" s="19"/>
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B201" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="C201" s="19"/>
+      <c r="D201" s="19"/>
+      <c r="E201" s="19"/>
+      <c r="F201" s="19"/>
+      <c r="G201" s="19"/>
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B202" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C202" s="19"/>
+      <c r="D202" s="19"/>
+      <c r="E202" s="19"/>
+      <c r="F202" s="19"/>
+      <c r="G202" s="19"/>
+    </row>
+    <row r="203" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B203" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="C203" s="19"/>
+      <c r="D203" s="19"/>
+      <c r="E203" s="19"/>
+      <c r="F203" s="19"/>
+      <c r="G203" s="19"/>
+    </row>
+    <row r="204" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B204" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="C204" s="19"/>
+      <c r="D204" s="19"/>
+      <c r="E204" s="19"/>
+      <c r="F204" s="19"/>
+      <c r="G204" s="19"/>
+    </row>
+    <row r="205" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B205" s="19"/>
+      <c r="C205" s="19"/>
+      <c r="D205" s="19"/>
+      <c r="E205" s="19"/>
+      <c r="F205" s="19"/>
+      <c r="G205" s="19"/>
+    </row>
+    <row r="206" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B206" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C206" s="19"/>
+      <c r="D206" s="19"/>
+      <c r="E206" s="19"/>
+      <c r="F206" s="19"/>
+      <c r="G206" s="19"/>
+    </row>
+    <row r="207" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B207" s="19"/>
+      <c r="C207" s="19"/>
+      <c r="D207" s="19"/>
+      <c r="E207" s="19"/>
+      <c r="F207" s="19"/>
+      <c r="G207" s="19"/>
+    </row>
+    <row r="208" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B208" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C208" s="19"/>
+      <c r="D208" s="19"/>
+      <c r="E208" s="19"/>
+      <c r="F208" s="19"/>
+      <c r="G208" s="19"/>
+    </row>
+    <row r="209" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B209" s="19"/>
+      <c r="C209" s="19"/>
+      <c r="D209" s="19"/>
+      <c r="E209" s="19"/>
+      <c r="F209" s="19"/>
+      <c r="G209" s="19"/>
+    </row>
+    <row r="210" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B210" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="C210" s="19"/>
+      <c r="D210" s="19"/>
+      <c r="E210" s="19"/>
+      <c r="F210" s="19"/>
+      <c r="G210" s="19"/>
+    </row>
+    <row r="211" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B211" s="19"/>
+      <c r="C211" s="19"/>
+      <c r="D211" s="19"/>
+      <c r="E211" s="19"/>
+      <c r="F211" s="19"/>
+      <c r="G211" s="19"/>
+    </row>
+    <row r="212" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B212" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="C212" s="19"/>
+      <c r="D212" s="19"/>
+      <c r="E212" s="19"/>
+      <c r="F212" s="19"/>
+      <c r="G212" s="19"/>
+    </row>
+    <row r="213" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B213" s="19"/>
+      <c r="C213" s="19"/>
+      <c r="D213" s="19"/>
+      <c r="E213" s="19"/>
+      <c r="F213" s="19"/>
+      <c r="G213" s="19"/>
+    </row>
+    <row r="214" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B214" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C214" s="19"/>
+      <c r="D214" s="19"/>
+      <c r="E214" s="19"/>
+      <c r="F214" s="19"/>
+      <c r="G214" s="19"/>
+    </row>
+    <row r="215" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B215" s="19"/>
+      <c r="C215" s="19"/>
+      <c r="D215" s="19"/>
+      <c r="E215" s="19"/>
+      <c r="F215" s="19"/>
+      <c r="G215" s="19"/>
+    </row>
+    <row r="216" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B216" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="C216" s="19"/>
+      <c r="D216" s="19"/>
+      <c r="E216" s="19"/>
+      <c r="F216" s="19"/>
+      <c r="G216" s="19"/>
+    </row>
+    <row r="217" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B217" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C217" s="19"/>
+      <c r="D217" s="19"/>
+      <c r="E217" s="19"/>
+      <c r="F217" s="19"/>
+      <c r="G217" s="19"/>
+    </row>
+    <row r="218" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B218" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="C218" s="19"/>
+      <c r="D218" s="19"/>
+      <c r="E218" s="19"/>
+      <c r="F218" s="19"/>
+      <c r="G218" s="19"/>
+    </row>
+    <row r="219" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B219" s="19"/>
+      <c r="C219" s="19"/>
+      <c r="D219" s="19"/>
+      <c r="E219" s="19"/>
+      <c r="F219" s="19"/>
+      <c r="G219" s="19"/>
+    </row>
+    <row r="220" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B220" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C220" s="19"/>
+      <c r="D220" s="19"/>
+      <c r="E220" s="19"/>
+      <c r="F220" s="19"/>
+      <c r="G220" s="19"/>
+    </row>
+    <row r="221" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B221" s="19"/>
+      <c r="C221" s="19"/>
+      <c r="D221" s="19"/>
+      <c r="E221" s="19"/>
+      <c r="F221" s="19"/>
+      <c r="G221" s="19"/>
+    </row>
+    <row r="222" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B222" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C222" s="19"/>
+      <c r="D222" s="19"/>
+      <c r="E222" s="19"/>
+      <c r="F222" s="19"/>
+      <c r="G222" s="19"/>
+    </row>
+    <row r="223" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B223" s="19"/>
+      <c r="C223" s="19"/>
+      <c r="D223" s="19"/>
+      <c r="E223" s="19"/>
+      <c r="F223" s="19"/>
+      <c r="G223" s="19"/>
+    </row>
+    <row r="224" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B224" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="C224" s="19"/>
+      <c r="D224" s="19"/>
+      <c r="E224" s="19"/>
+      <c r="F224" s="19"/>
+      <c r="G224" s="19"/>
+    </row>
+    <row r="225" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B225" s="19"/>
+      <c r="C225" s="19"/>
+      <c r="D225" s="19"/>
+      <c r="E225" s="19"/>
+      <c r="F225" s="19"/>
+      <c r="G225" s="19"/>
+    </row>
+    <row r="226" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B226" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="C226" s="19"/>
+      <c r="D226" s="19"/>
+      <c r="E226" s="19"/>
+      <c r="F226" s="19"/>
+      <c r="G226" s="19"/>
+    </row>
+    <row r="227" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B227" s="19"/>
+      <c r="C227" s="19"/>
+      <c r="D227" s="19"/>
+      <c r="E227" s="19"/>
+      <c r="F227" s="19"/>
+      <c r="G227" s="19"/>
+    </row>
+    <row r="228" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B228" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C228" s="19"/>
+      <c r="D228" s="19"/>
+      <c r="E228" s="19"/>
+      <c r="F228" s="19"/>
+      <c r="G228" s="19"/>
+    </row>
+    <row r="229" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B229" s="19"/>
+      <c r="C229" s="19"/>
+      <c r="D229" s="19"/>
+      <c r="E229" s="19"/>
+      <c r="F229" s="19"/>
+      <c r="G229" s="19"/>
+    </row>
+    <row r="230" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B230" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C230" s="19"/>
+      <c r="D230" s="19"/>
+      <c r="E230" s="19"/>
+      <c r="F230" s="19"/>
+      <c r="G230" s="19"/>
+    </row>
+    <row r="231" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B231" s="19"/>
+      <c r="C231" s="19"/>
+      <c r="D231" s="19"/>
+      <c r="E231" s="19"/>
+      <c r="F231" s="19"/>
+      <c r="G231" s="19"/>
+    </row>
+    <row r="232" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B232" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C232" s="19"/>
+      <c r="D232" s="19"/>
+      <c r="E232" s="19"/>
+      <c r="F232" s="19"/>
+      <c r="G232" s="19"/>
+    </row>
+    <row r="233" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B233" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C233" s="19"/>
+      <c r="D233" s="19"/>
+      <c r="E233" s="19"/>
+      <c r="F233" s="19"/>
+      <c r="G233" s="19"/>
+    </row>
+    <row r="234" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B234" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C234" s="19"/>
+      <c r="D234" s="19"/>
+      <c r="E234" s="19"/>
+      <c r="F234" s="19"/>
+      <c r="G234" s="19"/>
+    </row>
+    <row r="235" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B235" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C235" s="19"/>
+      <c r="D235" s="19"/>
+      <c r="E235" s="19"/>
+      <c r="F235" s="19"/>
+      <c r="G235" s="19"/>
+    </row>
+    <row r="236" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B236" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="C236" s="19"/>
+      <c r="D236" s="19"/>
+      <c r="E236" s="19"/>
+      <c r="F236" s="19"/>
+      <c r="G236" s="19"/>
+    </row>
+    <row r="237" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B237" s="19"/>
+      <c r="C237" s="19"/>
+      <c r="D237" s="19"/>
+      <c r="E237" s="19"/>
+      <c r="F237" s="19"/>
+      <c r="G237" s="19"/>
+    </row>
+    <row r="238" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B238" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C238" s="19"/>
+      <c r="D238" s="19"/>
+      <c r="E238" s="19"/>
+      <c r="F238" s="19"/>
+      <c r="G238" s="19"/>
+    </row>
+    <row r="239" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B239" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="C239" s="19"/>
+      <c r="D239" s="19"/>
+      <c r="E239" s="19"/>
+      <c r="F239" s="19"/>
+      <c r="G239" s="19"/>
+    </row>
+    <row r="240" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B240" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="C240" s="19"/>
+      <c r="D240" s="19"/>
+      <c r="E240" s="19"/>
+      <c r="F240" s="19"/>
+      <c r="G240" s="19"/>
+    </row>
+    <row r="241" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B241" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="C241" s="19"/>
+      <c r="D241" s="19"/>
+      <c r="E241" s="19"/>
+      <c r="F241" s="19"/>
+      <c r="G241" s="19"/>
+    </row>
+    <row r="242" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B242" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C242" s="19"/>
+      <c r="D242" s="19"/>
+      <c r="E242" s="19"/>
+      <c r="F242" s="19"/>
+      <c r="G242" s="19"/>
+    </row>
+    <row r="243" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B243" s="19"/>
+      <c r="C243" s="19"/>
+      <c r="D243" s="19"/>
+      <c r="E243" s="19"/>
+      <c r="F243" s="19"/>
+      <c r="G243" s="19"/>
+    </row>
+    <row r="244" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B244" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="C244" s="19"/>
+      <c r="D244" s="19"/>
+      <c r="E244" s="19"/>
+      <c r="F244" s="19"/>
+      <c r="G244" s="19"/>
+    </row>
+    <row r="245" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B245" s="19"/>
+      <c r="C245" s="19"/>
+      <c r="D245" s="19"/>
+      <c r="E245" s="19"/>
+      <c r="F245" s="19"/>
+      <c r="G245" s="19"/>
+    </row>
+    <row r="246" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B246" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C246" s="19"/>
+      <c r="D246" s="19"/>
+      <c r="E246" s="19"/>
+      <c r="F246" s="19"/>
+      <c r="G246" s="19"/>
+    </row>
+    <row r="247" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B247" s="19"/>
+      <c r="C247" s="19"/>
+      <c r="D247" s="19"/>
+      <c r="E247" s="19"/>
+      <c r="F247" s="19"/>
+      <c r="G247" s="19"/>
+    </row>
+    <row r="248" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B248" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="C248" s="19"/>
+      <c r="D248" s="19"/>
+      <c r="E248" s="19"/>
+      <c r="F248" s="19"/>
+      <c r="G248" s="19"/>
+    </row>
+    <row r="249" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B249" s="19"/>
+      <c r="C249" s="19"/>
+      <c r="D249" s="19"/>
+      <c r="E249" s="19"/>
+      <c r="F249" s="19"/>
+      <c r="G249" s="19"/>
+    </row>
+    <row r="250" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B250" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="C250" s="19"/>
+      <c r="D250" s="19"/>
+      <c r="E250" s="19"/>
+      <c r="F250" s="19"/>
+      <c r="G250" s="19"/>
+    </row>
+    <row r="251" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B251" s="19"/>
+      <c r="C251" s="19"/>
+      <c r="D251" s="19"/>
+      <c r="E251" s="19"/>
+      <c r="F251" s="19"/>
+      <c r="G251" s="19"/>
+    </row>
+    <row r="252" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B252" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C252" s="19"/>
+      <c r="D252" s="19"/>
+      <c r="E252" s="19"/>
+      <c r="F252" s="19"/>
+      <c r="G252" s="19"/>
+    </row>
+    <row r="253" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B253" s="19"/>
+      <c r="C253" s="19"/>
+      <c r="D253" s="19"/>
+      <c r="E253" s="19"/>
+      <c r="F253" s="19"/>
+      <c r="G253" s="19"/>
+    </row>
+    <row r="254" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B254" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="C254" s="19"/>
+      <c r="D254" s="19"/>
+      <c r="E254" s="19"/>
+      <c r="F254" s="19"/>
+      <c r="G254" s="19"/>
+    </row>
+    <row r="255" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B255" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C255" s="19"/>
+      <c r="D255" s="19"/>
+      <c r="E255" s="19"/>
+      <c r="F255" s="19"/>
+      <c r="G255" s="19"/>
+    </row>
+    <row r="256" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B256" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="C256" s="19"/>
+      <c r="D256" s="19"/>
+      <c r="E256" s="19"/>
+      <c r="F256" s="19"/>
+      <c r="G256" s="19"/>
+    </row>
+    <row r="257" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B257" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="C257" s="19"/>
+      <c r="D257" s="19"/>
+      <c r="E257" s="19"/>
+      <c r="F257" s="19"/>
+      <c r="G257" s="19"/>
+    </row>
+    <row r="258" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B258" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="C258" s="19"/>
+      <c r="D258" s="19"/>
+      <c r="E258" s="19"/>
+      <c r="F258" s="19"/>
+      <c r="G258" s="19"/>
+    </row>
+    <row r="259" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B259" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="C259" s="19"/>
+      <c r="D259" s="19"/>
+      <c r="E259" s="19"/>
+      <c r="F259" s="19"/>
+      <c r="G259" s="19"/>
+    </row>
+    <row r="260" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B260" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="C260" s="19"/>
+      <c r="D260" s="19"/>
+      <c r="E260" s="19"/>
+      <c r="F260" s="19"/>
+      <c r="G260" s="19"/>
+    </row>
+    <row r="261" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B261" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C261" s="19"/>
+      <c r="D261" s="19"/>
+      <c r="E261" s="19"/>
+      <c r="F261" s="19"/>
+      <c r="G261" s="19"/>
+    </row>
+    <row r="262" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B262" s="19"/>
+      <c r="C262" s="19"/>
+      <c r="D262" s="19"/>
+      <c r="E262" s="19"/>
+      <c r="F262" s="19"/>
+      <c r="G262" s="19"/>
+    </row>
+    <row r="263" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B263" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C263" s="19"/>
+      <c r="D263" s="19"/>
+      <c r="E263" s="19"/>
+      <c r="F263" s="19"/>
+      <c r="G263" s="19"/>
+    </row>
+    <row r="264" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B264" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C264" s="19"/>
+      <c r="D264" s="19"/>
+      <c r="E264" s="19"/>
+      <c r="F264" s="19"/>
+      <c r="G264" s="19"/>
+    </row>
+    <row r="265" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B265" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="C265" s="19"/>
+      <c r="D265" s="19"/>
+      <c r="E265" s="19"/>
+      <c r="F265" s="19"/>
+      <c r="G265" s="19"/>
+    </row>
+    <row r="266" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B266" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C266" s="19"/>
+      <c r="D266" s="19"/>
+      <c r="E266" s="19"/>
+      <c r="F266" s="19"/>
+      <c r="G266" s="19"/>
+    </row>
+    <row r="267" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B267" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="C267" s="19"/>
+      <c r="D267" s="19"/>
+      <c r="E267" s="19"/>
+      <c r="F267" s="19"/>
+      <c r="G267" s="19"/>
+    </row>
+    <row r="268" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B268" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="C268" s="19"/>
+      <c r="D268" s="19"/>
+      <c r="E268" s="19"/>
+      <c r="F268" s="19"/>
+      <c r="G268" s="19"/>
+    </row>
+    <row r="269" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B269" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="C269" s="19"/>
+      <c r="D269" s="19"/>
+      <c r="E269" s="19"/>
+      <c r="F269" s="19"/>
+      <c r="G269" s="19"/>
+    </row>
+    <row r="270" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B270" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="C270" s="19"/>
+      <c r="D270" s="19"/>
+      <c r="E270" s="19"/>
+      <c r="F270" s="19"/>
+      <c r="G270" s="19"/>
+    </row>
+    <row r="271" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B271" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="C271" s="19"/>
+      <c r="D271" s="19"/>
+      <c r="E271" s="19"/>
+      <c r="F271" s="19"/>
+      <c r="G271" s="19"/>
+    </row>
+    <row r="272" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B272" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C272" s="19"/>
+      <c r="D272" s="19"/>
+      <c r="E272" s="19"/>
+      <c r="F272" s="19"/>
+      <c r="G272" s="19"/>
+    </row>
+    <row r="273" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B273" s="19"/>
+      <c r="C273" s="19"/>
+      <c r="D273" s="19"/>
+      <c r="E273" s="19"/>
+      <c r="F273" s="19"/>
+      <c r="G273" s="19"/>
+    </row>
+    <row r="274" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B274" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="C274" s="19"/>
+      <c r="D274" s="19"/>
+      <c r="E274" s="19"/>
+      <c r="F274" s="19"/>
+      <c r="G274" s="19"/>
+    </row>
+    <row r="275" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B275" s="19"/>
+      <c r="C275" s="19"/>
+      <c r="D275" s="19"/>
+      <c r="E275" s="19"/>
+      <c r="F275" s="19"/>
+      <c r="G275" s="19"/>
+    </row>
+    <row r="276" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B276" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C276" s="19"/>
+      <c r="D276" s="19"/>
+      <c r="E276" s="19"/>
+      <c r="F276" s="19"/>
+      <c r="G276" s="19"/>
+    </row>
+    <row r="277" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B277" s="19"/>
+      <c r="C277" s="19"/>
+      <c r="D277" s="19"/>
+      <c r="E277" s="19"/>
+      <c r="F277" s="19"/>
+      <c r="G277" s="19"/>
+    </row>
+    <row r="278" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B278" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="C278" s="19"/>
+      <c r="D278" s="19"/>
+      <c r="E278" s="19"/>
+      <c r="F278" s="19"/>
+      <c r="G278" s="19"/>
+    </row>
+    <row r="279" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B279" s="19"/>
+      <c r="C279" s="19"/>
+      <c r="D279" s="19"/>
+      <c r="E279" s="19"/>
+      <c r="F279" s="19"/>
+      <c r="G279" s="19"/>
+    </row>
+    <row r="280" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B280" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="C280" s="19"/>
+      <c r="D280" s="19"/>
+      <c r="E280" s="19"/>
+      <c r="F280" s="19"/>
+      <c r="G280" s="19"/>
+    </row>
+    <row r="281" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B281" s="19"/>
+      <c r="C281" s="19"/>
+      <c r="D281" s="19"/>
+      <c r="E281" s="19"/>
+      <c r="F281" s="19"/>
+      <c r="G281" s="19"/>
+    </row>
+    <row r="282" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B282" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="C282" s="19"/>
+      <c r="D282" s="19"/>
+      <c r="E282" s="19"/>
+      <c r="F282" s="19"/>
+      <c r="G282" s="19"/>
+    </row>
+    <row r="283" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B283" s="19"/>
+      <c r="C283" s="19"/>
+      <c r="D283" s="19"/>
+      <c r="E283" s="19"/>
+      <c r="F283" s="19"/>
+      <c r="G283" s="19"/>
+    </row>
+    <row r="284" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B284" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C284" s="19"/>
+      <c r="D284" s="19"/>
+      <c r="E284" s="19"/>
+      <c r="F284" s="19"/>
+      <c r="G284" s="19"/>
+    </row>
+    <row r="285" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B285" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C285" s="19"/>
+      <c r="D285" s="19"/>
+      <c r="E285" s="19"/>
+      <c r="F285" s="19"/>
+      <c r="G285" s="19"/>
+    </row>
+    <row r="286" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B286" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="C286" s="19"/>
+      <c r="D286" s="19"/>
+      <c r="E286" s="19"/>
+      <c r="F286" s="19"/>
+      <c r="G286" s="19"/>
+    </row>
+    <row r="287" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B287" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="C287" s="19"/>
+      <c r="D287" s="19"/>
+      <c r="E287" s="19"/>
+      <c r="F287" s="19"/>
+      <c r="G287" s="19"/>
+    </row>
+    <row r="288" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B288" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="C288" s="19"/>
+      <c r="D288" s="19"/>
+      <c r="E288" s="19"/>
+      <c r="F288" s="19"/>
+      <c r="G288" s="19"/>
+    </row>
+    <row r="289" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B289" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="C289" s="19"/>
+      <c r="D289" s="19"/>
+      <c r="E289" s="19"/>
+      <c r="F289" s="19"/>
+      <c r="G289" s="19"/>
+    </row>
+    <row r="290" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B290" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="C290" s="19"/>
+      <c r="D290" s="19"/>
+      <c r="E290" s="19"/>
+      <c r="F290" s="19"/>
+      <c r="G290" s="19"/>
+    </row>
+    <row r="291" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B291" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="C291" s="19"/>
+      <c r="D291" s="19"/>
+      <c r="E291" s="19"/>
+      <c r="F291" s="19"/>
+      <c r="G291" s="19"/>
+    </row>
+    <row r="292" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B292" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="C292" s="19"/>
+      <c r="D292" s="19"/>
+      <c r="E292" s="19"/>
+      <c r="F292" s="19"/>
+      <c r="G292" s="19"/>
+    </row>
+    <row r="293" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B293" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C293" s="19"/>
+      <c r="D293" s="19"/>
+      <c r="E293" s="19"/>
+      <c r="F293" s="19"/>
+      <c r="G293" s="19"/>
+    </row>
+    <row r="294" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B294" s="19"/>
+      <c r="C294" s="19"/>
+      <c r="D294" s="19"/>
+      <c r="E294" s="19"/>
+      <c r="F294" s="19"/>
+      <c r="G294" s="19"/>
+    </row>
+    <row r="295" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B295" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="C295" s="19"/>
+      <c r="D295" s="19"/>
+      <c r="E295" s="19"/>
+      <c r="F295" s="19"/>
+      <c r="G295" s="19"/>
+    </row>
+    <row r="296" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B296" s="19"/>
+      <c r="C296" s="19"/>
+      <c r="D296" s="19"/>
+      <c r="E296" s="19"/>
+      <c r="F296" s="19"/>
+      <c r="G296" s="19"/>
+    </row>
+    <row r="297" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B297" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C297" s="19"/>
+      <c r="D297" s="19"/>
+      <c r="E297" s="19"/>
+      <c r="F297" s="19"/>
+      <c r="G297" s="19"/>
+    </row>
+    <row r="298" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B298" s="19"/>
+      <c r="C298" s="19"/>
+      <c r="D298" s="19"/>
+      <c r="E298" s="19"/>
+      <c r="F298" s="19"/>
+      <c r="G298" s="19"/>
+    </row>
+    <row r="299" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B299" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="C299" s="19"/>
+      <c r="D299" s="19"/>
+      <c r="E299" s="19"/>
+      <c r="F299" s="19"/>
+      <c r="G299" s="19"/>
+    </row>
+    <row r="300" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B300" s="19"/>
+      <c r="C300" s="19"/>
+      <c r="D300" s="19"/>
+      <c r="E300" s="19"/>
+      <c r="F300" s="19"/>
+      <c r="G300" s="19"/>
+    </row>
+    <row r="301" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B301" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="C301" s="19"/>
+      <c r="D301" s="19"/>
+      <c r="E301" s="19"/>
+      <c r="F301" s="19"/>
+      <c r="G301" s="19"/>
+    </row>
+    <row r="302" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B302" s="19"/>
+      <c r="C302" s="19"/>
+      <c r="D302" s="19"/>
+      <c r="E302" s="19"/>
+      <c r="F302" s="19"/>
+      <c r="G302" s="19"/>
+    </row>
+    <row r="303" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B303" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="C303" s="19"/>
+      <c r="D303" s="19"/>
+      <c r="E303" s="19"/>
+      <c r="F303" s="19"/>
+      <c r="G303" s="19"/>
+    </row>
+    <row r="304" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B304" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C304" s="19"/>
+      <c r="D304" s="19"/>
+      <c r="E304" s="19"/>
+      <c r="F304" s="19"/>
+      <c r="G304" s="19"/>
+    </row>
+    <row r="305" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B305" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C305" s="19"/>
+      <c r="D305" s="19"/>
+      <c r="E305" s="19"/>
+      <c r="F305" s="19"/>
+      <c r="G305" s="19"/>
+    </row>
+    <row r="306" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B306" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C306" s="19"/>
+      <c r="D306" s="19"/>
+      <c r="E306" s="19"/>
+      <c r="F306" s="19"/>
+      <c r="G306" s="19"/>
+    </row>
+    <row r="307" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B307" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="C307" s="19"/>
+      <c r="D307" s="19"/>
+      <c r="E307" s="19"/>
+      <c r="F307" s="19"/>
+      <c r="G307" s="19"/>
+    </row>
+    <row r="308" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B308" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C308" s="19"/>
+      <c r="D308" s="19"/>
+      <c r="E308" s="19"/>
+      <c r="F308" s="19"/>
+      <c r="G308" s="19"/>
+    </row>
+    <row r="309" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B309" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="C309" s="19"/>
+      <c r="D309" s="19"/>
+      <c r="E309" s="19"/>
+      <c r="F309" s="19"/>
+      <c r="G309" s="19"/>
+    </row>
+    <row r="310" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B310" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="C310" s="19"/>
+      <c r="D310" s="19"/>
+      <c r="E310" s="19"/>
+      <c r="F310" s="19"/>
+      <c r="G310" s="19"/>
+    </row>
+    <row r="311" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B311" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C311" s="19"/>
+      <c r="D311" s="19"/>
+      <c r="E311" s="19"/>
+      <c r="F311" s="19"/>
+      <c r="G311" s="19"/>
+    </row>
+    <row r="312" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B312" s="19"/>
+      <c r="C312" s="19"/>
+      <c r="D312" s="19"/>
+      <c r="E312" s="19"/>
+      <c r="F312" s="19"/>
+      <c r="G312" s="19"/>
+    </row>
+    <row r="313" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B313" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C313" s="19"/>
+      <c r="D313" s="19"/>
+      <c r="E313" s="19"/>
+      <c r="F313" s="19"/>
+      <c r="G313" s="19"/>
+    </row>
+    <row r="314" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B314" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C314" s="19"/>
+      <c r="D314" s="19"/>
+      <c r="E314" s="19"/>
+      <c r="F314" s="19"/>
+      <c r="G314" s="19"/>
+    </row>
+    <row r="315" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B315" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="C315" s="19"/>
+      <c r="D315" s="19"/>
+      <c r="E315" s="19"/>
+      <c r="F315" s="19"/>
+      <c r="G315" s="19"/>
+    </row>
+    <row r="316" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B316" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="C316" s="19"/>
+      <c r="D316" s="19"/>
+      <c r="E316" s="19"/>
+      <c r="F316" s="19"/>
+      <c r="G316" s="19"/>
+    </row>
+    <row r="317" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B317" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="C317" s="19"/>
+      <c r="D317" s="19"/>
+      <c r="E317" s="19"/>
+      <c r="F317" s="19"/>
+      <c r="G317" s="19"/>
+    </row>
+    <row r="318" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B318" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="C318" s="19"/>
+      <c r="D318" s="19"/>
+      <c r="E318" s="19"/>
+      <c r="F318" s="19"/>
+      <c r="G318" s="19"/>
+    </row>
+    <row r="319" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B319" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="C319" s="19"/>
+      <c r="D319" s="19"/>
+      <c r="E319" s="19"/>
+      <c r="F319" s="19"/>
+      <c r="G319" s="19"/>
+    </row>
+    <row r="320" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B320" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="C320" s="19"/>
+      <c r="D320" s="19"/>
+      <c r="E320" s="19"/>
+      <c r="F320" s="19"/>
+      <c r="G320" s="19"/>
+    </row>
+    <row r="321" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B321" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="C321" s="19"/>
+      <c r="D321" s="19"/>
+      <c r="E321" s="19"/>
+      <c r="F321" s="19"/>
+      <c r="G321" s="19"/>
+    </row>
+    <row r="322" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B322" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C322" s="19"/>
+      <c r="D322" s="19"/>
+      <c r="E322" s="19"/>
+      <c r="F322" s="19"/>
+      <c r="G322" s="19"/>
+    </row>
+    <row r="323" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B323" s="19"/>
+      <c r="C323" s="19"/>
+      <c r="D323" s="19"/>
+      <c r="E323" s="19"/>
+      <c r="F323" s="19"/>
+      <c r="G323" s="19"/>
+    </row>
+    <row r="324" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B324" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="C324" s="19"/>
+      <c r="D324" s="19"/>
+      <c r="E324" s="19"/>
+      <c r="F324" s="19"/>
+      <c r="G324" s="19"/>
+    </row>
+    <row r="325" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B325" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="C325" s="19"/>
+      <c r="D325" s="19"/>
+      <c r="E325" s="19"/>
+      <c r="F325" s="19"/>
+      <c r="G325" s="19"/>
+    </row>
+    <row r="326" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B326" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="C326" s="19"/>
+      <c r="D326" s="19"/>
+      <c r="E326" s="19"/>
+      <c r="F326" s="19"/>
+      <c r="G326" s="19"/>
+    </row>
+    <row r="327" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B327" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="C327" s="19"/>
+      <c r="D327" s="19"/>
+      <c r="E327" s="19"/>
+      <c r="F327" s="19"/>
+      <c r="G327" s="19"/>
+    </row>
+    <row r="328" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B328" s="19"/>
+      <c r="C328" s="19"/>
+      <c r="D328" s="19"/>
+      <c r="E328" s="19"/>
+      <c r="F328" s="19"/>
+      <c r="G328" s="19"/>
+    </row>
+    <row r="329" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B329" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C329" s="19"/>
+      <c r="D329" s="19"/>
+      <c r="E329" s="19"/>
+      <c r="F329" s="19"/>
+      <c r="G329" s="19"/>
+    </row>
+    <row r="330" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B330" s="19"/>
+      <c r="C330" s="19"/>
+      <c r="D330" s="19"/>
+      <c r="E330" s="19"/>
+      <c r="F330" s="19"/>
+      <c r="G330" s="19"/>
+    </row>
+    <row r="331" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B331" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="C331" s="19"/>
+      <c r="D331" s="19"/>
+      <c r="E331" s="19"/>
+      <c r="F331" s="19"/>
+      <c r="G331" s="19"/>
+    </row>
+    <row r="332" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B332" s="19"/>
+      <c r="C332" s="19"/>
+      <c r="D332" s="19"/>
+      <c r="E332" s="19"/>
+      <c r="F332" s="19"/>
+      <c r="G332" s="19"/>
+    </row>
+    <row r="333" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B333" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="C333" s="19"/>
+      <c r="D333" s="19"/>
+      <c r="E333" s="19"/>
+      <c r="F333" s="19"/>
+      <c r="G333" s="19"/>
+    </row>
+    <row r="334" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B334" s="19"/>
+      <c r="C334" s="19"/>
+      <c r="D334" s="19"/>
+      <c r="E334" s="19"/>
+      <c r="F334" s="19"/>
+      <c r="G334" s="19"/>
+    </row>
+    <row r="335" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B335" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="C335" s="19"/>
+      <c r="D335" s="19"/>
+      <c r="E335" s="19"/>
+      <c r="F335" s="19"/>
+      <c r="G335" s="19"/>
+    </row>
+    <row r="336" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B336" s="19"/>
+      <c r="C336" s="19"/>
+      <c r="D336" s="19"/>
+      <c r="E336" s="19"/>
+      <c r="F336" s="19"/>
+      <c r="G336" s="19"/>
+    </row>
+    <row r="337" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B337" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C337" s="19"/>
+      <c r="D337" s="19"/>
+      <c r="E337" s="19"/>
+      <c r="F337" s="19"/>
+      <c r="G337" s="19"/>
+    </row>
+    <row r="338" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B338" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C338" s="19"/>
+      <c r="D338" s="19"/>
+      <c r="E338" s="19"/>
+      <c r="F338" s="19"/>
+      <c r="G338" s="19"/>
+    </row>
+    <row r="339" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B339" s="19"/>
+      <c r="C339" s="19"/>
+      <c r="D339" s="19"/>
+      <c r="E339" s="19"/>
+      <c r="F339" s="19"/>
+      <c r="G339" s="19"/>
+    </row>
+    <row r="340" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B340" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C340" s="19"/>
+      <c r="D340" s="19"/>
+      <c r="E340" s="19"/>
+      <c r="F340" s="19"/>
+      <c r="G340" s="19"/>
+    </row>
+    <row r="341" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B341" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="C341" s="19"/>
+      <c r="D341" s="19"/>
+      <c r="E341" s="19"/>
+      <c r="F341" s="19"/>
+      <c r="G341" s="19"/>
+    </row>
+    <row r="342" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B342" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="C342" s="19"/>
+      <c r="D342" s="19"/>
+      <c r="E342" s="19"/>
+      <c r="F342" s="19"/>
+      <c r="G342" s="19"/>
+    </row>
+    <row r="343" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B343" s="19"/>
+      <c r="C343" s="19"/>
+      <c r="D343" s="19"/>
+      <c r="E343" s="19"/>
+      <c r="F343" s="19"/>
+      <c r="G343" s="19"/>
+    </row>
+    <row r="344" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B344" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="C344" s="19"/>
+      <c r="D344" s="19"/>
+      <c r="E344" s="19"/>
+      <c r="F344" s="19"/>
+      <c r="G344" s="19"/>
+    </row>
+    <row r="345" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B345" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="C345" s="19"/>
+      <c r="D345" s="19"/>
+      <c r="E345" s="19"/>
+      <c r="F345" s="19"/>
+      <c r="G345" s="19"/>
+    </row>
+    <row r="346" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B346" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="C346" s="19"/>
+      <c r="D346" s="19"/>
+      <c r="E346" s="19"/>
+      <c r="F346" s="19"/>
+      <c r="G346" s="19"/>
+    </row>
+    <row r="347" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B347" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="C347" s="19"/>
+      <c r="D347" s="19"/>
+      <c r="E347" s="19"/>
+      <c r="F347" s="19"/>
+      <c r="G347" s="19"/>
+    </row>
+    <row r="348" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B348" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="C348" s="19"/>
+      <c r="D348" s="19"/>
+      <c r="E348" s="19"/>
+      <c r="F348" s="19"/>
+      <c r="G348" s="19"/>
+    </row>
+    <row r="349" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B349" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C349" s="19"/>
+      <c r="D349" s="19"/>
+      <c r="E349" s="19"/>
+      <c r="F349" s="19"/>
+      <c r="G349" s="19"/>
+    </row>
+    <row r="350" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B350" s="19"/>
+      <c r="C350" s="19"/>
+      <c r="D350" s="19"/>
+      <c r="E350" s="19"/>
+      <c r="F350" s="19"/>
+      <c r="G350" s="19"/>
+    </row>
+    <row r="351" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B351" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="C351" s="19"/>
+      <c r="D351" s="19"/>
+      <c r="E351" s="19"/>
+      <c r="F351" s="19"/>
+      <c r="G351" s="19"/>
+    </row>
+    <row r="352" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B352" s="19"/>
+      <c r="C352" s="19"/>
+      <c r="D352" s="19"/>
+      <c r="E352" s="19"/>
+      <c r="F352" s="19"/>
+      <c r="G352" s="19"/>
+    </row>
+    <row r="353" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B353" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="C353" s="19"/>
+      <c r="D353" s="19"/>
+      <c r="E353" s="19"/>
+      <c r="F353" s="19"/>
+      <c r="G353" s="19"/>
+    </row>
+    <row r="354" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B354" s="19"/>
+      <c r="C354" s="19"/>
+      <c r="D354" s="19"/>
+      <c r="E354" s="19"/>
+      <c r="F354" s="19"/>
+      <c r="G354" s="19"/>
+    </row>
+    <row r="355" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B355" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C355" s="19"/>
+      <c r="D355" s="19"/>
+      <c r="E355" s="19"/>
+      <c r="F355" s="19"/>
+      <c r="G355" s="19"/>
+    </row>
+    <row r="356" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B356" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="C356" s="19"/>
+      <c r="D356" s="19"/>
+      <c r="E356" s="19"/>
+      <c r="F356" s="19"/>
+      <c r="G356" s="19"/>
+    </row>
+    <row r="357" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B357" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="C357" s="19"/>
+      <c r="D357" s="19"/>
+      <c r="E357" s="19"/>
+      <c r="F357" s="19"/>
+      <c r="G357" s="19"/>
+    </row>
+    <row r="358" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B358" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="C358" s="19"/>
+      <c r="D358" s="19"/>
+      <c r="E358" s="19"/>
+      <c r="F358" s="19"/>
+      <c r="G358" s="19"/>
+    </row>
+    <row r="359" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B359" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="C359" s="19"/>
+      <c r="D359" s="19"/>
+      <c r="E359" s="19"/>
+      <c r="F359" s="19"/>
+      <c r="G359" s="19"/>
+    </row>
+    <row r="360" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B360" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="C360" s="19"/>
+      <c r="D360" s="19"/>
+      <c r="E360" s="19"/>
+      <c r="F360" s="19"/>
+      <c r="G360" s="19"/>
+    </row>
+    <row r="361" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B361" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C361" s="19"/>
+      <c r="D361" s="19"/>
+      <c r="E361" s="19"/>
+      <c r="F361" s="19"/>
+      <c r="G361" s="19"/>
+    </row>
+    <row r="362" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B362" s="19"/>
+      <c r="C362" s="19"/>
+      <c r="D362" s="19"/>
+      <c r="E362" s="19"/>
+      <c r="F362" s="19"/>
+      <c r="G362" s="19"/>
+    </row>
+    <row r="363" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B363" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C363" s="19"/>
+      <c r="D363" s="19"/>
+      <c r="E363" s="19"/>
+      <c r="F363" s="19"/>
+      <c r="G363" s="19"/>
+    </row>
+    <row r="364" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B364" s="19"/>
+      <c r="C364" s="19"/>
+      <c r="D364" s="19"/>
+      <c r="E364" s="19"/>
+      <c r="F364" s="19"/>
+      <c r="G364" s="19"/>
+    </row>
+    <row r="365" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B365" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="C365" s="19"/>
+      <c r="D365" s="19"/>
+      <c r="E365" s="19"/>
+      <c r="F365" s="19"/>
+      <c r="G365" s="19"/>
+    </row>
+    <row r="366" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B366" s="19"/>
+      <c r="C366" s="19"/>
+      <c r="D366" s="19"/>
+      <c r="E366" s="19"/>
+      <c r="F366" s="19"/>
+      <c r="G366" s="19"/>
+    </row>
+    <row r="367" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B367" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="C367" s="19"/>
+      <c r="D367" s="19"/>
+      <c r="E367" s="19"/>
+      <c r="F367" s="19"/>
+      <c r="G367" s="19"/>
+    </row>
+    <row r="368" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B368" s="19"/>
+      <c r="C368" s="19"/>
+      <c r="D368" s="19"/>
+      <c r="E368" s="19"/>
+      <c r="F368" s="19"/>
+      <c r="G368" s="19"/>
+    </row>
+    <row r="369" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B369" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="C369" s="19"/>
+      <c r="D369" s="19"/>
+      <c r="E369" s="19"/>
+      <c r="F369" s="19"/>
+      <c r="G369" s="19"/>
+    </row>
+    <row r="370" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B370" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C370" s="19"/>
+      <c r="D370" s="19"/>
+      <c r="E370" s="19"/>
+      <c r="F370" s="19"/>
+      <c r="G370" s="19"/>
+    </row>
+    <row r="371" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B371" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="C371" s="19"/>
+      <c r="D371" s="19"/>
+      <c r="E371" s="19"/>
+      <c r="F371" s="19"/>
+      <c r="G371" s="19"/>
+    </row>
+    <row r="372" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B372" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C372" s="19"/>
+      <c r="D372" s="19"/>
+      <c r="E372" s="19"/>
+      <c r="F372" s="19"/>
+      <c r="G372" s="19"/>
+    </row>
+    <row r="373" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B373" s="19"/>
+      <c r="C373" s="19"/>
+      <c r="D373" s="19"/>
+      <c r="E373" s="19"/>
+      <c r="F373" s="19"/>
+      <c r="G373" s="19"/>
+    </row>
+    <row r="374" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B374" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="C374" s="19"/>
+      <c r="D374" s="19"/>
+      <c r="E374" s="19"/>
+      <c r="F374" s="19"/>
+      <c r="G374" s="19"/>
+    </row>
+    <row r="375" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B375" s="19"/>
+      <c r="C375" s="19"/>
+      <c r="D375" s="19"/>
+      <c r="E375" s="19"/>
+      <c r="F375" s="19"/>
+      <c r="G375" s="19"/>
+    </row>
+    <row r="376" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B376" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="C376" s="19"/>
+      <c r="D376" s="19"/>
+      <c r="E376" s="19"/>
+      <c r="F376" s="19"/>
+      <c r="G376" s="19"/>
+    </row>
+    <row r="377" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B377" s="19"/>
+      <c r="C377" s="19"/>
+      <c r="D377" s="19"/>
+      <c r="E377" s="19"/>
+      <c r="F377" s="19"/>
+      <c r="G377" s="19"/>
+    </row>
+    <row r="378" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B378" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C378" s="19"/>
+      <c r="D378" s="19"/>
+      <c r="E378" s="19"/>
+      <c r="F378" s="19"/>
+      <c r="G378" s="19"/>
+    </row>
+    <row r="379" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B379" s="19"/>
+      <c r="C379" s="19"/>
+      <c r="D379" s="19"/>
+      <c r="E379" s="19"/>
+      <c r="F379" s="19"/>
+      <c r="G379" s="19"/>
+    </row>
+    <row r="380" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B380" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="C380" s="19"/>
+      <c r="D380" s="19"/>
+      <c r="E380" s="19"/>
+      <c r="F380" s="19"/>
+      <c r="G380" s="19"/>
+    </row>
+    <row r="381" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B381" s="19"/>
+      <c r="C381" s="19"/>
+      <c r="D381" s="19"/>
+      <c r="E381" s="19"/>
+      <c r="F381" s="19"/>
+      <c r="G381" s="19"/>
+    </row>
+    <row r="382" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B382" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="C382" s="19"/>
+      <c r="D382" s="19"/>
+      <c r="E382" s="19"/>
+      <c r="F382" s="19"/>
+      <c r="G382" s="19"/>
+    </row>
+    <row r="383" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B383" s="19"/>
+      <c r="C383" s="19"/>
+      <c r="D383" s="19"/>
+      <c r="E383" s="19"/>
+      <c r="F383" s="19"/>
+      <c r="G383" s="19"/>
+    </row>
+    <row r="384" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B384" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="C384" s="19"/>
+      <c r="D384" s="19"/>
+      <c r="E384" s="19"/>
+      <c r="F384" s="19"/>
+      <c r="G384" s="19"/>
+    </row>
+    <row r="385" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B385" s="19"/>
+      <c r="C385" s="19"/>
+      <c r="D385" s="19"/>
+      <c r="E385" s="19"/>
+      <c r="F385" s="19"/>
+      <c r="G385" s="19"/>
+    </row>
+    <row r="386" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B386" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="C386" s="19"/>
+      <c r="D386" s="19"/>
+      <c r="E386" s="19"/>
+      <c r="F386" s="19"/>
+      <c r="G386" s="19"/>
+    </row>
+    <row r="387" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B387" s="19"/>
+      <c r="C387" s="19"/>
+      <c r="D387" s="19"/>
+      <c r="E387" s="19"/>
+      <c r="F387" s="19"/>
+      <c r="G387" s="19"/>
+    </row>
+    <row r="388" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B388" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="C388" s="19"/>
+      <c r="D388" s="19"/>
+      <c r="E388" s="19"/>
+      <c r="F388" s="19"/>
+      <c r="G388" s="19"/>
+    </row>
+    <row r="389" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B389" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="C389" s="19"/>
+      <c r="D389" s="19"/>
+      <c r="E389" s="19"/>
+      <c r="F389" s="19"/>
+      <c r="G389" s="19"/>
+    </row>
+    <row r="390" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B390" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C390" s="19"/>
+      <c r="D390" s="19"/>
+      <c r="E390" s="19"/>
+      <c r="F390" s="19"/>
+      <c r="G390" s="19"/>
+    </row>
+    <row r="391" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B391" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="C391" s="19"/>
+      <c r="D391" s="19"/>
+      <c r="E391" s="19"/>
+      <c r="F391" s="19"/>
+      <c r="G391" s="19"/>
+    </row>
+    <row r="392" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B392" s="19"/>
+      <c r="C392" s="19"/>
+      <c r="D392" s="19"/>
+      <c r="E392" s="19"/>
+      <c r="F392" s="19"/>
+      <c r="G392" s="19"/>
+    </row>
+    <row r="393" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B393" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C393" s="19"/>
+      <c r="D393" s="19"/>
+      <c r="E393" s="19"/>
+      <c r="F393" s="19"/>
+      <c r="G393" s="19"/>
+    </row>
+    <row r="394" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B394" s="19"/>
+      <c r="C394" s="19"/>
+      <c r="D394" s="19"/>
+      <c r="E394" s="19"/>
+      <c r="F394" s="19"/>
+      <c r="G394" s="19"/>
+    </row>
+    <row r="395" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B395" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="C395" s="19"/>
+      <c r="D395" s="19"/>
+      <c r="E395" s="19"/>
+      <c r="F395" s="19"/>
+      <c r="G395" s="19"/>
+    </row>
+    <row r="396" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B396" s="19"/>
+      <c r="C396" s="19"/>
+      <c r="D396" s="19"/>
+      <c r="E396" s="19"/>
+      <c r="F396" s="19"/>
+      <c r="G396" s="19"/>
+    </row>
+    <row r="397" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B397" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="C397" s="19"/>
+      <c r="D397" s="19"/>
+      <c r="E397" s="19"/>
+      <c r="F397" s="19"/>
+      <c r="G397" s="19"/>
+    </row>
+    <row r="398" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B398" s="19"/>
+      <c r="C398" s="19"/>
+      <c r="D398" s="19"/>
+      <c r="E398" s="19"/>
+      <c r="F398" s="19"/>
+      <c r="G398" s="19"/>
+    </row>
+    <row r="399" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B399" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="C399" s="19"/>
+      <c r="D399" s="19"/>
+      <c r="E399" s="19"/>
+      <c r="F399" s="19"/>
+      <c r="G399" s="19"/>
+    </row>
+    <row r="400" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B400" s="19"/>
+      <c r="C400" s="19"/>
+      <c r="D400" s="19"/>
+      <c r="E400" s="19"/>
+      <c r="F400" s="19"/>
+      <c r="G400" s="19"/>
+    </row>
+    <row r="401" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B401" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="C401" s="19"/>
+      <c r="D401" s="19"/>
+      <c r="E401" s="19"/>
+      <c r="F401" s="19"/>
+      <c r="G401" s="19"/>
+    </row>
+    <row r="402" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B402" s="19"/>
+      <c r="C402" s="19"/>
+      <c r="D402" s="19"/>
+      <c r="E402" s="19"/>
+      <c r="F402" s="19"/>
+      <c r="G402" s="19"/>
+    </row>
+    <row r="403" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B403" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C403" s="19"/>
+      <c r="D403" s="19"/>
+      <c r="E403" s="19"/>
+      <c r="F403" s="19"/>
+      <c r="G403" s="19"/>
+    </row>
+    <row r="404" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B404" s="19"/>
+      <c r="C404" s="19"/>
+      <c r="D404" s="19"/>
+      <c r="E404" s="19"/>
+      <c r="F404" s="19"/>
+      <c r="G404" s="19"/>
+    </row>
+    <row r="405" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B405" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="C405" s="19"/>
+      <c r="D405" s="19"/>
+      <c r="E405" s="19"/>
+      <c r="F405" s="19"/>
+      <c r="G405" s="19"/>
+    </row>
+    <row r="406" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B406" s="19"/>
+      <c r="C406" s="19"/>
+      <c r="D406" s="19"/>
+      <c r="E406" s="19"/>
+      <c r="F406" s="19"/>
+      <c r="G406" s="19"/>
+    </row>
+    <row r="407" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B407" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="C407" s="19"/>
+      <c r="D407" s="19"/>
+      <c r="E407" s="19"/>
+      <c r="F407" s="19"/>
+      <c r="G407" s="19"/>
+    </row>
+    <row r="408" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B408" s="19"/>
+      <c r="C408" s="19"/>
+      <c r="D408" s="19"/>
+      <c r="E408" s="19"/>
+      <c r="F408" s="19"/>
+      <c r="G408" s="19"/>
+    </row>
+    <row r="409" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B409" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="C409" s="19"/>
+      <c r="D409" s="19"/>
+      <c r="E409" s="19"/>
+      <c r="F409" s="19"/>
+      <c r="G409" s="19"/>
+    </row>
+    <row r="410" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B410" s="19"/>
+      <c r="C410" s="19"/>
+      <c r="D410" s="19"/>
+      <c r="E410" s="19"/>
+      <c r="F410" s="19"/>
+      <c r="G410" s="19"/>
+    </row>
+    <row r="411" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B411" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="C411" s="19"/>
+      <c r="D411" s="19"/>
+      <c r="E411" s="19"/>
+      <c r="F411" s="19"/>
+      <c r="G411" s="19"/>
+    </row>
+    <row r="412" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B412" s="19"/>
+      <c r="C412" s="19"/>
+      <c r="D412" s="19"/>
+      <c r="E412" s="19"/>
+      <c r="F412" s="19"/>
+      <c r="G412" s="19"/>
+    </row>
+    <row r="413" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B413" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C413" s="19"/>
+      <c r="D413" s="19"/>
+      <c r="E413" s="19"/>
+      <c r="F413" s="19"/>
+      <c r="G413" s="19"/>
+    </row>
+    <row r="414" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B414" s="19"/>
+      <c r="C414" s="19"/>
+      <c r="D414" s="19"/>
+      <c r="E414" s="19"/>
+      <c r="F414" s="19"/>
+      <c r="G414" s="19"/>
+    </row>
+    <row r="415" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B415" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="C415" s="19"/>
+      <c r="D415" s="19"/>
+      <c r="E415" s="19"/>
+      <c r="F415" s="19"/>
+      <c r="G415" s="19"/>
+    </row>
+    <row r="416" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B416" s="19"/>
+      <c r="C416" s="19"/>
+      <c r="D416" s="19"/>
+      <c r="E416" s="19"/>
+      <c r="F416" s="19"/>
+      <c r="G416" s="19"/>
+    </row>
+    <row r="417" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B417" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="C417" s="19"/>
+      <c r="D417" s="19"/>
+      <c r="E417" s="19"/>
+      <c r="F417" s="19"/>
+      <c r="G417" s="19"/>
+    </row>
+    <row r="418" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B418" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="C418" s="19"/>
+      <c r="D418" s="19"/>
+      <c r="E418" s="19"/>
+      <c r="F418" s="19"/>
+      <c r="G418" s="19"/>
+    </row>
+    <row r="419" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B419" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="C419" s="19"/>
+      <c r="D419" s="19"/>
+      <c r="E419" s="19"/>
+      <c r="F419" s="19"/>
+      <c r="G419" s="19"/>
+    </row>
+    <row r="420" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B420" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C420" s="19"/>
+      <c r="D420" s="19"/>
+      <c r="E420" s="19"/>
+      <c r="F420" s="19"/>
+      <c r="G420" s="19"/>
+    </row>
+    <row r="421" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B421" s="19"/>
+      <c r="C421" s="19"/>
+      <c r="D421" s="19"/>
+      <c r="E421" s="19"/>
+      <c r="F421" s="19"/>
+      <c r="G421" s="19"/>
+    </row>
+    <row r="422" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B422" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="C422" s="19"/>
+      <c r="D422" s="19"/>
+      <c r="E422" s="19"/>
+      <c r="F422" s="19"/>
+      <c r="G422" s="19"/>
+    </row>
+    <row r="423" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B423" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="C423" s="19"/>
+      <c r="D423" s="19"/>
+      <c r="E423" s="19"/>
+      <c r="F423" s="19"/>
+      <c r="G423" s="19"/>
+    </row>
+    <row r="424" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B424" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C424" s="19"/>
+      <c r="D424" s="19"/>
+      <c r="E424" s="19"/>
+      <c r="F424" s="19"/>
+      <c r="G424" s="19"/>
+    </row>
+    <row r="425" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B425" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="C425" s="19"/>
+      <c r="D425" s="19"/>
+      <c r="E425" s="19"/>
+      <c r="F425" s="19"/>
+      <c r="G425" s="19"/>
+    </row>
+    <row r="426" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B426" s="19"/>
+      <c r="C426" s="19"/>
+      <c r="D426" s="19"/>
+      <c r="E426" s="19"/>
+      <c r="F426" s="19"/>
+      <c r="G426" s="19"/>
+    </row>
+    <row r="427" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B427" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C427" s="19"/>
+      <c r="D427" s="19"/>
+      <c r="E427" s="19"/>
+      <c r="F427" s="19"/>
+      <c r="G427" s="19"/>
+    </row>
+    <row r="428" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B428" s="19"/>
+      <c r="C428" s="19"/>
+      <c r="D428" s="19"/>
+      <c r="E428" s="19"/>
+      <c r="F428" s="19"/>
+      <c r="G428" s="19"/>
+    </row>
+    <row r="429" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B429" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="C429" s="19"/>
+      <c r="D429" s="19"/>
+      <c r="E429" s="19"/>
+      <c r="F429" s="19"/>
+      <c r="G429" s="19"/>
+    </row>
+    <row r="430" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B430" s="19"/>
+      <c r="C430" s="19"/>
+      <c r="D430" s="19"/>
+      <c r="E430" s="19"/>
+      <c r="F430" s="19"/>
+      <c r="G430" s="19"/>
+    </row>
+    <row r="431" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B431" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C431" s="19"/>
+      <c r="D431" s="19"/>
+      <c r="E431" s="19"/>
+      <c r="F431" s="19"/>
+      <c r="G431" s="19"/>
+    </row>
+    <row r="432" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B432" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C432" s="19"/>
+      <c r="D432" s="19"/>
+      <c r="E432" s="19"/>
+      <c r="F432" s="19"/>
+      <c r="G432" s="19"/>
+    </row>
+    <row r="433" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B433" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="C433" s="19"/>
+      <c r="D433" s="19"/>
+      <c r="E433" s="19"/>
+      <c r="F433" s="19"/>
+      <c r="G433" s="19"/>
+    </row>
+    <row r="434" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B434" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="C434" s="19"/>
+      <c r="D434" s="19"/>
+      <c r="E434" s="19"/>
+      <c r="F434" s="19"/>
+      <c r="G434" s="19"/>
+    </row>
+    <row r="435" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B435" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="C435" s="19"/>
+      <c r="D435" s="19"/>
+      <c r="E435" s="19"/>
+      <c r="F435" s="19"/>
+      <c r="G435" s="19"/>
+    </row>
+    <row r="436" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B436" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C436" s="19"/>
+      <c r="D436" s="19"/>
+      <c r="E436" s="19"/>
+      <c r="F436" s="19"/>
+      <c r="G436" s="19"/>
+    </row>
+    <row r="437" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B437" s="19"/>
+      <c r="C437" s="19"/>
+      <c r="D437" s="19"/>
+      <c r="E437" s="19"/>
+      <c r="F437" s="19"/>
+      <c r="G437" s="19"/>
+    </row>
+    <row r="438" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B438" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="C438" s="19"/>
+      <c r="D438" s="19"/>
+      <c r="E438" s="19"/>
+      <c r="F438" s="19"/>
+      <c r="G438" s="19"/>
+    </row>
+    <row r="439" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B439" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C439" s="19"/>
+      <c r="D439" s="19"/>
+      <c r="E439" s="19"/>
+      <c r="F439" s="19"/>
+      <c r="G439" s="19"/>
+    </row>
+    <row r="440" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B440" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="C440" s="19"/>
+      <c r="D440" s="19"/>
+      <c r="E440" s="19"/>
+      <c r="F440" s="19"/>
+      <c r="G440" s="19"/>
+    </row>
+    <row r="441" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B441" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="C441" s="19"/>
+      <c r="D441" s="19"/>
+      <c r="E441" s="19"/>
+      <c r="F441" s="19"/>
+      <c r="G441" s="19"/>
+    </row>
+    <row r="442" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B442" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="C442" s="19"/>
+      <c r="D442" s="19"/>
+      <c r="E442" s="19"/>
+      <c r="F442" s="19"/>
+      <c r="G442" s="19"/>
+    </row>
+    <row r="443" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B443" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C443" s="19"/>
+      <c r="D443" s="19"/>
+      <c r="E443" s="19"/>
+      <c r="F443" s="19"/>
+      <c r="G443" s="19"/>
+    </row>
+    <row r="444" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B444" s="19"/>
+      <c r="C444" s="19"/>
+      <c r="D444" s="19"/>
+      <c r="E444" s="19"/>
+      <c r="F444" s="19"/>
+      <c r="G444" s="19"/>
+    </row>
+    <row r="445" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B445" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="C445" s="19"/>
+      <c r="D445" s="19"/>
+      <c r="E445" s="19"/>
+      <c r="F445" s="19"/>
+      <c r="G445" s="19"/>
+    </row>
+    <row r="446" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B446" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C446" s="19"/>
+      <c r="D446" s="19"/>
+      <c r="E446" s="19"/>
+      <c r="F446" s="19"/>
+      <c r="G446" s="19"/>
+    </row>
+    <row r="447" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B447" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="C447" s="19"/>
+      <c r="D447" s="19"/>
+      <c r="E447" s="19"/>
+      <c r="F447" s="19"/>
+      <c r="G447" s="19"/>
+    </row>
+    <row r="448" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B448" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="C448" s="19"/>
+      <c r="D448" s="19"/>
+      <c r="E448" s="19"/>
+      <c r="F448" s="19"/>
+      <c r="G448" s="19"/>
+    </row>
+    <row r="449" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B449" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="C449" s="19"/>
+      <c r="D449" s="19"/>
+      <c r="E449" s="19"/>
+      <c r="F449" s="19"/>
+      <c r="G449" s="19"/>
+    </row>
+    <row r="450" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B450" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C450" s="19"/>
+      <c r="D450" s="19"/>
+      <c r="E450" s="19"/>
+      <c r="F450" s="19"/>
+      <c r="G450" s="19"/>
+    </row>
+    <row r="451" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B451" s="19"/>
+      <c r="C451" s="19"/>
+      <c r="D451" s="19"/>
+      <c r="E451" s="19"/>
+      <c r="F451" s="19"/>
+      <c r="G451" s="19"/>
+    </row>
+    <row r="452" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B452" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="C452" s="19"/>
+      <c r="D452" s="19"/>
+      <c r="E452" s="19"/>
+      <c r="F452" s="19"/>
+      <c r="G452" s="19"/>
+    </row>
+    <row r="453" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B453" s="19"/>
+      <c r="C453" s="19"/>
+      <c r="D453" s="19"/>
+      <c r="E453" s="19"/>
+      <c r="F453" s="19"/>
+      <c r="G453" s="19"/>
+    </row>
+    <row r="454" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B454" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C454" s="19"/>
+      <c r="D454" s="19"/>
+      <c r="E454" s="19"/>
+      <c r="F454" s="19"/>
+      <c r="G454" s="19"/>
+    </row>
+    <row r="455" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B455" s="19"/>
+      <c r="C455" s="19"/>
+      <c r="D455" s="19"/>
+      <c r="E455" s="19"/>
+      <c r="F455" s="19"/>
+      <c r="G455" s="19"/>
+    </row>
+    <row r="456" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B456" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="C456" s="19"/>
+      <c r="D456" s="19"/>
+      <c r="E456" s="19"/>
+      <c r="F456" s="19"/>
+      <c r="G456" s="19"/>
+    </row>
+    <row r="457" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B457" s="19"/>
+      <c r="C457" s="19"/>
+      <c r="D457" s="19"/>
+      <c r="E457" s="19"/>
+      <c r="F457" s="19"/>
+      <c r="G457" s="19"/>
+    </row>
+    <row r="458" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B458" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="C458" s="19"/>
+      <c r="D458" s="19"/>
+      <c r="E458" s="19"/>
+      <c r="F458" s="19"/>
+      <c r="G458" s="19"/>
+    </row>
+    <row r="459" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B459" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="C459" s="19"/>
+      <c r="D459" s="19"/>
+      <c r="E459" s="19"/>
+      <c r="F459" s="19"/>
+      <c r="G459" s="19"/>
+    </row>
+    <row r="460" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B460" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="C460" s="19"/>
+      <c r="D460" s="19"/>
+      <c r="E460" s="19"/>
+      <c r="F460" s="19"/>
+      <c r="G460" s="19"/>
+    </row>
+    <row r="461" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B461" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="C461" s="19"/>
+      <c r="D461" s="19"/>
+      <c r="E461" s="19"/>
+      <c r="F461" s="19"/>
+      <c r="G461" s="19"/>
+    </row>
+    <row r="462" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B462" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="C462" s="19"/>
+      <c r="D462" s="19"/>
+      <c r="E462" s="19"/>
+      <c r="F462" s="19"/>
+      <c r="G462" s="19"/>
+    </row>
+    <row r="463" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B463" s="19"/>
+      <c r="C463" s="19"/>
+      <c r="D463" s="19"/>
+      <c r="E463" s="19"/>
+      <c r="F463" s="19"/>
+      <c r="G463" s="19"/>
+    </row>
+    <row r="464" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B464" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="C464" s="19"/>
+      <c r="D464" s="19"/>
+      <c r="E464" s="19"/>
+      <c r="F464" s="19"/>
+      <c r="G464" s="19"/>
+    </row>
+    <row r="465" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B465" s="19"/>
+      <c r="C465" s="19"/>
+      <c r="D465" s="19"/>
+      <c r="E465" s="19"/>
+      <c r="F465" s="19"/>
+      <c r="G465" s="19"/>
+    </row>
+    <row r="466" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B466" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="C466" s="19"/>
+      <c r="D466" s="19"/>
+      <c r="E466" s="19"/>
+      <c r="F466" s="19"/>
+      <c r="G466" s="19"/>
+    </row>
+    <row r="467" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B467" s="19"/>
+      <c r="C467" s="19"/>
+      <c r="D467" s="19"/>
+      <c r="E467" s="19"/>
+      <c r="F467" s="19"/>
+      <c r="G467" s="19"/>
+    </row>
+    <row r="468" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B468" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="C468" s="19"/>
+      <c r="D468" s="19"/>
+      <c r="E468" s="19"/>
+      <c r="F468" s="19"/>
+      <c r="G468" s="19"/>
+    </row>
+    <row r="469" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B469" s="19"/>
+      <c r="C469" s="19"/>
+      <c r="D469" s="19"/>
+      <c r="E469" s="19"/>
+      <c r="F469" s="19"/>
+      <c r="G469" s="19"/>
+    </row>
+    <row r="470" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B470" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C470" s="19"/>
+      <c r="D470" s="19"/>
+      <c r="E470" s="19"/>
+      <c r="F470" s="19"/>
+      <c r="G470" s="19"/>
+    </row>
+    <row r="471" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B471" s="19"/>
+      <c r="C471" s="19"/>
+      <c r="D471" s="19"/>
+      <c r="E471" s="19"/>
+      <c r="F471" s="19"/>
+      <c r="G471" s="19"/>
+    </row>
+    <row r="472" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B472" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="C472" s="19"/>
+      <c r="D472" s="19"/>
+      <c r="E472" s="19"/>
+      <c r="F472" s="19"/>
+      <c r="G472" s="19"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
